--- a/data_year/zb/建筑业/建筑业企业利税总额.xlsx
+++ b/data_year/zb/建筑业/建筑业企业利税总额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,495 +468,283 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>362.19</v>
+        <v>3192.7331</v>
       </c>
       <c r="C2" t="n">
-        <v>4.6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>192.0635</v>
+        <v>3409.07409</v>
       </c>
       <c r="E2" t="n">
-        <v>579.2206</v>
+        <v>6760.38694</v>
       </c>
       <c r="F2" t="n">
-        <v>24.96</v>
+        <v>158.5797</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>472.33</v>
+        <v>3697.53184</v>
       </c>
       <c r="C3" t="n">
-        <v>5.2</v>
+        <v>6.86198198165333</v>
       </c>
       <c r="D3" t="n">
-        <v>294.3904</v>
+        <v>4168.32736</v>
       </c>
       <c r="E3" t="n">
-        <v>793.4252</v>
+        <v>8032.61211</v>
       </c>
       <c r="F3" t="n">
-        <v>26.7</v>
+        <v>166.87891</v>
       </c>
       <c r="G3" t="n">
-        <v>4.676</v>
+        <v>8.558091251012311</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>566.76</v>
+        <v>4190.4796200002</v>
       </c>
       <c r="C4" t="n">
-        <v>5.2</v>
+        <v>6.68</v>
       </c>
       <c r="D4" t="n">
-        <v>370.3532</v>
+        <v>4776.1415499999</v>
       </c>
       <c r="E4" t="n">
-        <v>969.7797</v>
+        <v>9165.02569</v>
       </c>
       <c r="F4" t="n">
-        <v>32.67</v>
+        <v>198.40452000003</v>
       </c>
       <c r="G4" t="n">
-        <v>4.8</v>
+        <v>8.210000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>720.29</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5.5</v>
-      </c>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>519.8715999999999</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1278.526</v>
-      </c>
-      <c r="F5" t="n">
-        <v>38.36</v>
-      </c>
-      <c r="G5" t="n">
-        <v>5.4</v>
-      </c>
+        <v>5575</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>894.1</v>
+        <v>5325.48236</v>
       </c>
       <c r="C6" t="n">
-        <v>5.7</v>
+        <v>6.76476804030538</v>
       </c>
       <c r="D6" t="n">
-        <v>719.24681</v>
+        <v>6407.12991</v>
       </c>
       <c r="E6" t="n">
-        <v>1655.43838</v>
+        <v>11954.2527</v>
       </c>
       <c r="F6" t="n">
-        <v>42.09</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
+        <v>221.64043</v>
+      </c>
+      <c r="G6" t="n">
+        <v>8.05690377700982</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1101.4</v>
+        <v>5425.2034699999</v>
       </c>
       <c r="C7" t="n">
-        <v>5.98067845369746</v>
+        <v>6.70768475047557</v>
       </c>
       <c r="D7" t="n">
-        <v>906.6623</v>
+        <v>6451.2324899999</v>
       </c>
       <c r="E7" t="n">
-        <v>2066.4572</v>
+        <v>12124.64149</v>
       </c>
       <c r="F7" t="n">
-        <v>58.4</v>
+        <v>248.20553000005</v>
       </c>
       <c r="G7" t="n">
-        <v>6.56315450263384</v>
+        <v>7.38288496333181</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1335.41</v>
-      </c>
+          <t>2016年</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>6.22356447142597</v>
+        <v>6.69716998278594</v>
       </c>
       <c r="D8" t="n">
-        <v>1193.0744</v>
+        <v>6986.04669</v>
       </c>
       <c r="E8" t="n">
-        <v>2594.5621</v>
-      </c>
-      <c r="F8" t="n">
-        <v>66.07384999999999</v>
-      </c>
+        <v>12963.49611</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>7.18251615576068</v>
+        <v>7.10398364722589</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1634.808</v>
-      </c>
+          <t>2017年</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>6.41684748450708</v>
+        <v>6.47792109069654</v>
       </c>
       <c r="D9" t="n">
-        <v>1561.12248</v>
+        <v>7491.77778</v>
       </c>
       <c r="E9" t="n">
-        <v>3275.39729</v>
-      </c>
-      <c r="F9" t="n">
-        <v>79.46681</v>
-      </c>
+        <v>13859.09493</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>7.61202087426732</v>
+        <v>6.77162874708273</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2147.63752</v>
-      </c>
+          <t>2018年</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>7.20027753240516</v>
+        <v>6.58384813816486</v>
       </c>
       <c r="D10" t="n">
-        <v>2201.83887</v>
+        <v>7974.8233</v>
       </c>
       <c r="E10" t="n">
-        <v>4466.82221</v>
-      </c>
-      <c r="F10" t="n">
-        <v>117.34582</v>
-      </c>
+        <v>15477.67429</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>8.63789505044622</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2524.60441</v>
-      </c>
+          <t>2019年</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>6.99466061009941</v>
+        <v>6.216</v>
       </c>
       <c r="D11" t="n">
-        <v>2718.75516</v>
+        <v>8279.54651</v>
       </c>
       <c r="E11" t="n">
-        <v>5372.44085</v>
-      </c>
-      <c r="F11" t="n">
-        <v>129.08128</v>
-      </c>
+        <v>15442.64534</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>8.642312816794369</v>
+        <v>6.01748635251051</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3192.7331</v>
-      </c>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>5.841</v>
       </c>
       <c r="D12" t="n">
-        <v>3409.07409</v>
+        <v>8447.73977</v>
       </c>
       <c r="E12" t="n">
-        <v>6760.38694</v>
-      </c>
-      <c r="F12" t="n">
-        <v>158.5797</v>
-      </c>
+        <v>15416.56981</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>9</v>
+        <v>5.447</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3697.53184</v>
-      </c>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>6.86198198165333</v>
+        <v>5.297</v>
       </c>
       <c r="D13" t="n">
-        <v>4168.32736</v>
+        <v>8470.814539999999</v>
       </c>
       <c r="E13" t="n">
-        <v>8032.61211</v>
-      </c>
-      <c r="F13" t="n">
-        <v>166.87891</v>
-      </c>
+        <v>15523.17852</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>8.558091251012311</v>
+        <v>4.987</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>4190.4796200002</v>
-      </c>
-      <c r="C14" t="n">
-        <v>6.68</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>4776.1415499999</v>
-      </c>
-      <c r="E14" t="n">
-        <v>9165.02569</v>
-      </c>
-      <c r="F14" t="n">
-        <v>198.40452000003</v>
-      </c>
-      <c r="G14" t="n">
-        <v>8.210000000000001</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
-        <v>5575</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>5325.48236</v>
-      </c>
-      <c r="C16" t="n">
-        <v>6.76476804030538</v>
-      </c>
-      <c r="D16" t="n">
-        <v>6407.12991</v>
-      </c>
-      <c r="E16" t="n">
-        <v>11954.2527</v>
-      </c>
-      <c r="F16" t="n">
-        <v>221.64043</v>
-      </c>
-      <c r="G16" t="n">
-        <v>8.05690377700982</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>5425.2034699999</v>
-      </c>
-      <c r="C17" t="n">
-        <v>6.70768475047557</v>
-      </c>
-      <c r="D17" t="n">
-        <v>6451.2324899999</v>
-      </c>
-      <c r="E17" t="n">
-        <v>12124.64149</v>
-      </c>
-      <c r="F17" t="n">
-        <v>248.20553000005</v>
-      </c>
-      <c r="G17" t="n">
-        <v>7.38288496333181</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="n">
-        <v>6.69716998278594</v>
-      </c>
-      <c r="D18" t="n">
-        <v>6986.04669</v>
-      </c>
-      <c r="E18" t="n">
-        <v>12963.49611</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="n">
-        <v>7.10398364722589</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="n">
-        <v>6.47792109069654</v>
-      </c>
-      <c r="D19" t="n">
-        <v>7491.77778</v>
-      </c>
-      <c r="E19" t="n">
-        <v>13859.09493</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="n">
-        <v>6.77162874708273</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="n">
-        <v>6.58384813816486</v>
-      </c>
-      <c r="D20" t="n">
-        <v>7974.8233</v>
-      </c>
-      <c r="E20" t="n">
-        <v>15477.67429</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="n">
-        <v>6.61</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="n">
-        <v>6.216</v>
-      </c>
-      <c r="D21" t="n">
-        <v>8279.54651</v>
-      </c>
-      <c r="E21" t="n">
-        <v>15442.64534</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="n">
-        <v>6.01748635251051</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="n">
-        <v>5.841</v>
-      </c>
-      <c r="D22" t="n">
-        <v>8447.73977</v>
-      </c>
-      <c r="E22" t="n">
-        <v>15416.56981</v>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="n">
-        <v>5.447</v>
-      </c>
+        <v>8639</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
